--- a/Журнал.xlsx
+++ b/Журнал.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Физ.ра" sheetId="3" r:id="rId1"/>
@@ -356,6 +356,110 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q5"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30" customWidth="1"/>
+    <col min="2" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.5703125" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="7" max="8" width="10.140625" customWidth="1"/>
+    <col min="9" max="9" width="10" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" customWidth="1"/>
+    <col min="12" max="12" width="10" customWidth="1"/>
+    <col min="13" max="13" width="10.42578125" customWidth="1"/>
+    <col min="14" max="14" width="10" customWidth="1"/>
+    <col min="15" max="15" width="10.28515625" customWidth="1"/>
+    <col min="16" max="16" width="10.42578125" customWidth="1"/>
+    <col min="17" max="17" width="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>42979</v>
+      </c>
+      <c r="C1" s="1">
+        <v>42983</v>
+      </c>
+      <c r="D1" s="1">
+        <v>42987</v>
+      </c>
+      <c r="E1" s="1">
+        <v>42991</v>
+      </c>
+      <c r="F1" s="1">
+        <v>42995</v>
+      </c>
+      <c r="G1" s="1">
+        <v>42999</v>
+      </c>
+      <c r="H1" s="1">
+        <v>43003</v>
+      </c>
+      <c r="I1" s="1">
+        <v>43007</v>
+      </c>
+      <c r="J1" s="1">
+        <v>43011</v>
+      </c>
+      <c r="K1" s="1">
+        <v>43015</v>
+      </c>
+      <c r="L1" s="1">
+        <v>43019</v>
+      </c>
+      <c r="M1" s="1">
+        <v>43023</v>
+      </c>
+      <c r="N1" s="1">
+        <v>43027</v>
+      </c>
+      <c r="O1" s="1">
+        <v>43031</v>
+      </c>
+      <c r="P1" s="1">
+        <v>43035</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>43039</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q5"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
@@ -435,109 +539,8 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.5703125" customWidth="1"/>
-    <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="7" max="8" width="10.140625" customWidth="1"/>
-    <col min="9" max="9" width="10" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" customWidth="1"/>
-    <col min="12" max="12" width="10" customWidth="1"/>
-    <col min="13" max="13" width="10.42578125" customWidth="1"/>
-    <col min="14" max="14" width="10" customWidth="1"/>
-    <col min="15" max="15" width="10.28515625" customWidth="1"/>
-    <col min="16" max="16" width="10.42578125" customWidth="1"/>
-    <col min="17" max="17" width="10" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1">
-        <v>42979</v>
-      </c>
-      <c r="C1" s="1">
-        <v>42983</v>
-      </c>
-      <c r="D1" s="1">
-        <v>42987</v>
-      </c>
-      <c r="E1" s="1">
-        <v>42991</v>
-      </c>
-      <c r="F1" s="1">
-        <v>42995</v>
-      </c>
-      <c r="G1" s="1">
-        <v>42999</v>
-      </c>
-      <c r="H1" s="1">
-        <v>43003</v>
-      </c>
-      <c r="I1" s="1">
-        <v>43007</v>
-      </c>
-      <c r="J1" s="1">
-        <v>43011</v>
-      </c>
-      <c r="K1" s="1">
-        <v>43015</v>
-      </c>
-      <c r="L1" s="1">
-        <v>43019</v>
-      </c>
-      <c r="M1" s="1">
-        <v>43023</v>
-      </c>
-      <c r="N1" s="1">
-        <v>43027</v>
-      </c>
-      <c r="O1" s="1">
-        <v>43031</v>
-      </c>
-      <c r="P1" s="1">
-        <v>43035</v>
-      </c>
-      <c r="Q1" s="1">
-        <v>43039</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="B2">
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">

--- a/Журнал.xlsx
+++ b/Журнал.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Физ.ра" sheetId="3" r:id="rId1"/>
@@ -356,7 +356,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -461,7 +461,7 @@
   <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="A1:XFD1048576"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -564,8 +564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -658,6 +658,9 @@
       <c r="A5" t="s">
         <v>4</v>
       </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Журнал.xlsx
+++ b/Журнал.xlsx
@@ -565,7 +565,7 @@
   <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -653,6 +653,9 @@
       <c r="A4" t="s">
         <v>3</v>
       </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">

--- a/Журнал.xlsx
+++ b/Журнал.xlsx
@@ -357,7 +357,7 @@
   <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -438,6 +438,9 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
         <v>2</v>
       </c>
     </row>
